--- a/data_processing/markets_2025.xlsx
+++ b/data_processing/markets_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norahunger/Documents/GitHub/weihnachtsmarktkarte/data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A514DF-161C-8940-93E8-9311A18373C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7DB2B-ABCB-0147-ADC0-63A8FC82A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{E31441BA-7A4B-AE45-96DE-30EAD52E9A9A}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="markets_2025" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">markets_2025!$A$1:$AF$45</definedName>
-    <definedName name="markets_2025" localSheetId="0">markets_2025!$A$1:$AF$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">markets_2025!$A$1:$AG$45</definedName>
+    <definedName name="markets_2025" localSheetId="0">markets_2025!$A$1:$AG$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="447">
   <si>
     <t>id</t>
   </si>
@@ -1012,10 +1012,6 @@
   </si>
   <si>
     <t>16:00 - 22:00</t>
-  </si>
-  <si>
-    <t>16.11.2025
-23.11.2025</t>
   </si>
   <si>
     <t xml:space="preserve">Wood chips are scattered across the market. If disabled visitors need assistance here, please feel free to speak to our staff. Christmas Avenue &amp; LGBTQIA Winterdays 2025: Glitter, beats, and queer love at Nollendorfplatz LGBTQIA Winterdays* start on November 5, and CHRISTMAS AVENUE – Berlin's only queer Christmas market – reopens its doors on November 24. Until December 23, Nollendorfplatz will be a sparkling meeting place for the community, friends, and families. When gray reigns outside, a place full of glitter, warmth, and togetherness shines under the elevated railway: Christmas Avenue will once again be the queer scene's Christmas living room in 2025. |  To kick things off, drag queen Margot Schlönzke invites you to the legendary Drag Bingo on November 5. After that, live music, drag shows, karaoke, and the hottest DJs on the scene will keep the party going – from house to pop. Berlin's most famous drag performers will take over the stage and hosting duties. There will also be culinary highlights, art, design &amp; manufacturing stands, weather-protected coziness under the elevated railway – and plenty of queer visibility: associations and initiatives will present their work, collect donations, and invite visitors to exchange ideas. Groups can rent a party hut.  |  Weekly specials such as Happy Hour (Mon), After Work (Thu), and Aperol o'Clock (Sun) round out the program. |  Photos can be downloaded for free from our homepage.
@@ -1156,9 +1152,6 @@
     <t>11:00 - 22:00</t>
   </si>
   <si>
-    <t>25.12.25 = 11:00 - 18:00, 26.12.24 = 11:00 - 18:00</t>
-  </si>
-  <si>
     <t>Montag - Samstag: 11:00 - 21:00 Uhr
 Sonntag: 13:00 - 19:00 Uhr
 24.-26.12.24 geschlossen</t>
@@ -1177,15 +1170,6 @@
     <t>12:00 - 19:00</t>
   </si>
   <si>
-    <t>24.12.25 = 10:00 - 14:00 Uhr</t>
-  </si>
-  <si>
-    <t>25.12.25 und 26.12.25</t>
-  </si>
-  <si>
-    <t>24.12.25 - 26.12.25</t>
-  </si>
-  <si>
     <t>25th anniversary - Christmas market in Berlin's largest pedestrian zone with fantastic attractions! Christmas tree with over 25,000 lights Sparkling lights and Christmas magic throughout the pedestrian zone</t>
   </si>
   <si>
@@ -1202,9 +1186,6 @@
 Freitag - Sonntag: 12:00 - 22:00 Uhr
 1. und 2. Feiertag: 12:00 -22:00  Uhr
 24.12.2025 geschlossen</t>
-  </si>
-  <si>
-    <t>25.12.25 = 12:00 - 22:00, 26.12.24 = 12:00 - 22:00</t>
   </si>
   <si>
     <t>13507 Berlin</t>
@@ -1358,9 +1339,6 @@
     <t>ab 12:00 Uhr</t>
   </si>
   <si>
-    <t>ab 12 Uhr</t>
-  </si>
-  <si>
     <t>52.41</t>
   </si>
   <si>
@@ -1408,6 +1386,96 @@
   </si>
   <si>
     <t>https://www.koeniglicher-weinberg.de/veranstaltungen/potsdamer-weinnacht/</t>
+  </si>
+  <si>
+    <t>24.12.25, 25.12.25, 26.12.25</t>
+  </si>
+  <si>
+    <t>16.11.2025, 23.11.2025</t>
+  </si>
+  <si>
+    <t>24.11.25</t>
+  </si>
+  <si>
+    <t>29.11.25</t>
+  </si>
+  <si>
+    <t>06.12.25</t>
+  </si>
+  <si>
+    <t>13.12.25</t>
+  </si>
+  <si>
+    <t>19.12.25</t>
+  </si>
+  <si>
+    <t>20.12.25</t>
+  </si>
+  <si>
+    <t>30.11.25</t>
+  </si>
+  <si>
+    <t>17.11.25.</t>
+  </si>
+  <si>
+    <t>07.12.25</t>
+  </si>
+  <si>
+    <t>13.11.25</t>
+  </si>
+  <si>
+    <t>28.11.25</t>
+  </si>
+  <si>
+    <t>05.11.25</t>
+  </si>
+  <si>
+    <t>26.11.25</t>
+  </si>
+  <si>
+    <t>12.12.25</t>
+  </si>
+  <si>
+    <t>05.12.25</t>
+  </si>
+  <si>
+    <t>27.12.25</t>
+  </si>
+  <si>
+    <t>31.12.25</t>
+  </si>
+  <si>
+    <t>28.12.25</t>
+  </si>
+  <si>
+    <t>30.12.25</t>
+  </si>
+  <si>
+    <t>21.12.25</t>
+  </si>
+  <si>
+    <t>14.12.25</t>
+  </si>
+  <si>
+    <t>22.12.25</t>
+  </si>
+  <si>
+    <t>31.03.26</t>
+  </si>
+  <si>
+    <t>23.12.25</t>
+  </si>
+  <si>
+    <t>25.12.25, 26.12.25</t>
+  </si>
+  <si>
+    <t>24.12.25= 10:00 - 14:00</t>
+  </si>
+  <si>
+    <t>25.12.25= 12:00 - 22:00, 26.12.24= 12:00 - 22:00</t>
+  </si>
+  <si>
+    <t>25.12.25= 11:00 - 18:00, 26.12.24= 11:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1491,7 +1559,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1499,9 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1518,6 +1582,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1856,43 +1926,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D8DA5-1D3E-6445-85B1-B279A4086756}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD52" sqref="AD52"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="62.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="78.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="80.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="46.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="62.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="78.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="80.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="46.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="60.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,86 +1982,89 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2009,17 +2083,17 @@
       <c r="F2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="3">
         <v>46018</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>80</v>
+      <c r="J2" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>80</v>
@@ -2037,29 +2111,29 @@
         <v>80</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="T2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="6">
+      <c r="V2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="W2" s="5">
         <v>52509</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="5">
         <v>13305</v>
       </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
       <c r="Y2" s="2">
         <v>0</v>
       </c>
@@ -2067,25 +2141,28 @@
         <v>0</v>
       </c>
       <c r="AA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -2104,17 +2181,17 @@
       <c r="F3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="3">
         <v>45990</v>
       </c>
-      <c r="H3" s="3">
-        <v>45990</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
+      <c r="J3" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -2128,36 +2205,36 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="V3" s="6">
+      <c r="V3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="W3" s="5">
         <v>52423</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
       <c r="Y3" s="2">
         <v>0</v>
       </c>
@@ -2165,22 +2242,25 @@
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="2">
         <v>0</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -2199,60 +2279,60 @@
       <c r="F4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I4" s="3">
         <v>45997</v>
       </c>
-      <c r="H4" s="3">
-        <v>45997</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="V4" s="6">
+      <c r="W4" s="5">
         <v>52509</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="5">
         <v>13581</v>
       </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
       <c r="Y4" s="2">
         <v>0</v>
       </c>
@@ -2260,22 +2340,25 @@
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2">
         <v>0</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -2294,17 +2377,17 @@
       <c r="F5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="3">
         <v>46022</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>99</v>
@@ -2324,30 +2407,30 @@
       <c r="P5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
+      <c r="Q5" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="W5" s="5">
         <v>52486</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="5">
         <v>13359</v>
       </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
       <c r="Y5" s="2">
         <v>0</v>
       </c>
@@ -2355,33 +2438,36 @@
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -2392,17 +2478,17 @@
       <c r="F6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="I6" s="3">
         <v>46019</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>168</v>
+      <c r="J6" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>168</v>
@@ -2414,7 +2500,7 @@
         <v>168</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>143</v>
@@ -2422,30 +2508,30 @@
       <c r="P6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="3">
         <v>46015</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="S6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" s="5">
         <v>52519</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="5">
         <v>13294</v>
       </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
       <c r="Y6" s="2">
         <v>0</v>
       </c>
@@ -2453,22 +2539,25 @@
         <v>0</v>
       </c>
       <c r="AA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>16</v>
       </c>
@@ -2487,60 +2576,60 @@
       <c r="F7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="3">
         <v>46004</v>
       </c>
-      <c r="H7" s="3">
-        <v>46004</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="V7" s="6">
+      <c r="W7" s="5">
         <v>52466</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="5">
         <v>13438</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
       <c r="Y7" s="2">
         <v>0</v>
       </c>
@@ -2548,25 +2637,28 @@
         <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>19</v>
       </c>
@@ -2585,60 +2677,60 @@
       <c r="F8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I8" s="3">
         <v>45997</v>
       </c>
-      <c r="H8" s="3">
-        <v>45997</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="W8" s="5">
         <v>52474</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
       <c r="Y8" s="2">
         <v>0</v>
       </c>
@@ -2646,213 +2738,222 @@
         <v>0</v>
       </c>
       <c r="AA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>45985</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="6"/>
+      <c r="G9" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="7">
         <v>46019</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="s">
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="9">
+      <c r="V9" s="6"/>
+      <c r="W9" s="8">
         <v>52403</v>
       </c>
-      <c r="W9" s="9">
+      <c r="X9" s="8">
         <v>13045</v>
       </c>
-      <c r="X9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7" t="s">
+      <c r="Y9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AG9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G10" s="8">
-        <v>45985</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="7">
         <v>46021</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="s">
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="9">
+      <c r="V10" s="6"/>
+      <c r="W10" s="8">
         <v>52456</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="8">
         <v>13385</v>
       </c>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="7" t="s">
+      <c r="Y10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AG10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>28</v>
       </c>
@@ -2869,19 +2970,19 @@
         <v>181</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H11" s="3">
+        <v>359</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" s="3">
         <v>46021</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>152</v>
+      <c r="J11" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>152</v>
@@ -2899,32 +3000,32 @@
         <v>152</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="V11" s="6">
+      <c r="V11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="W11" s="5">
         <v>52590</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="5">
         <v>13286</v>
       </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
       <c r="Y11" s="2">
         <v>0</v>
       </c>
@@ -2932,25 +3033,28 @@
         <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>31</v>
       </c>
@@ -2969,83 +3073,86 @@
       <c r="F12" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="3">
-        <v>46010</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="3">
         <v>46012</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="V12" s="6">
+      <c r="W12" s="5">
         <v>52452</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="5">
         <v>13624</v>
       </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
       <c r="Y12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2">
         <v>0</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>34</v>
       </c>
@@ -3064,83 +3171,86 @@
       <c r="F13" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="3">
-        <v>46011</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="3">
         <v>46012</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="V13" s="6">
+      <c r="W13" s="5">
         <v>52421</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="5">
         <v>13492</v>
       </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37</v>
       </c>
@@ -3159,17 +3269,17 @@
       <c r="F14" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I14" s="3">
         <v>45991</v>
       </c>
-      <c r="H14" s="3">
-        <v>45991</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
+      <c r="J14" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3186,33 +3296,33 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="V14" s="6">
+      <c r="V14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W14" s="5">
         <v>52621</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="5">
         <v>13359</v>
       </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
       <c r="Y14" s="2">
         <v>0</v>
       </c>
@@ -3220,22 +3330,25 @@
         <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>40</v>
       </c>
@@ -3254,17 +3367,17 @@
       <c r="F15" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="3">
-        <v>45978</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="I15" s="3">
         <v>46022</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>127</v>
@@ -3284,30 +3397,30 @@
       <c r="P15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="2">
-        <v>0</v>
+      <c r="Q15" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="V15" s="6">
+      <c r="V15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W15" s="5">
         <v>52502</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="5">
         <v>13448</v>
       </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
       <c r="Y15" s="2">
         <v>0</v>
       </c>
@@ -3321,19 +3434,22 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43</v>
       </c>
@@ -3353,16 +3469,16 @@
         <v>285</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
+        <v>369</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3376,36 +3492,36 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
+      <c r="Q16" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="V16" s="6">
+      <c r="V16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="W16" s="5">
         <v>52525</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="5">
         <v>13400</v>
       </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
       <c r="Y16" s="2">
         <v>0</v>
       </c>
@@ -3413,119 +3529,125 @@
         <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>46</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
-        <v>45978</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="F17" s="6"/>
+      <c r="G17" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" s="7">
         <v>46022</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="s">
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="U17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="9">
+      <c r="V17" s="6"/>
+      <c r="W17" s="8">
         <v>52503</v>
       </c>
-      <c r="W17" s="9">
+      <c r="X17" s="8">
         <v>13447</v>
       </c>
-      <c r="X17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="7" t="s">
+      <c r="Y17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" s="7" t="s">
+      <c r="AF17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AF17" s="7" t="s">
+      <c r="AG17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>49</v>
       </c>
@@ -3544,17 +3666,17 @@
       <c r="F18" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G18" s="3">
-        <v>46004</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" s="3">
         <v>46005</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
+      <c r="J18" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3568,36 +3690,36 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>80</v>
+      <c r="O18" s="2">
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q18" s="2">
-        <v>0</v>
+      <c r="Q18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V18" s="6">
+      <c r="V18" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W18" s="5">
         <v>52444</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="5">
         <v>13311</v>
       </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
       <c r="Y18" s="2">
         <v>0</v>
       </c>
@@ -3605,22 +3727,25 @@
         <v>0</v>
       </c>
       <c r="AA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2">
         <v>0</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>52</v>
       </c>
@@ -3639,17 +3764,17 @@
       <c r="F19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="3">
-        <v>46011</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="3">
         <v>46012</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
+      <c r="J19" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3663,36 +3788,36 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>139</v>
+      <c r="O19" s="2">
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q19" s="2">
-        <v>0</v>
+      <c r="Q19" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V19" s="6">
+      <c r="V19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="W19" s="5">
         <v>52512</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="5">
         <v>13259</v>
       </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
@@ -3700,22 +3825,25 @@
         <v>0</v>
       </c>
       <c r="AA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="2">
         <v>0</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>55</v>
       </c>
@@ -3734,17 +3862,17 @@
       <c r="F20" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I20" s="3">
         <v>45991</v>
       </c>
-      <c r="H20" s="3">
-        <v>45991</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
+      <c r="J20" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3761,33 +3889,33 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V20" s="6">
+      <c r="V20" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W20" s="5">
         <v>52508</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="5">
         <v>13309</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
       <c r="Y20" s="2">
         <v>0</v>
       </c>
@@ -3795,25 +3923,28 @@
         <v>0</v>
       </c>
       <c r="AA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>58</v>
       </c>
@@ -3832,60 +3963,60 @@
       <c r="F21" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I21" s="3">
         <v>45998</v>
       </c>
-      <c r="H21" s="3">
-        <v>45998</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="V21" s="6">
+      <c r="W21" s="5">
         <v>52506</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="5">
         <v>13297</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
       <c r="Y21" s="2">
         <v>0</v>
       </c>
@@ -3893,25 +4024,28 @@
         <v>0</v>
       </c>
       <c r="AA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>61</v>
       </c>
@@ -3930,17 +4064,17 @@
       <c r="F22" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G22" s="3">
-        <v>45974</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="I22" s="3">
         <v>46013</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>99</v>
+      <c r="J22" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>99</v>
@@ -3952,64 +4086,67 @@
         <v>99</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
       <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" s="6">
+      <c r="V22" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="W22" s="5">
         <v>52509</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="5">
         <v>13451</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
       <c r="Y22" s="2">
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
       </c>
       <c r="AC22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>64</v>
       </c>
@@ -4028,18 +4165,18 @@
       <c r="F23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" s="3">
         <v>45997</v>
       </c>
-      <c r="H23" s="3">
-        <v>45997</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
@@ -4052,62 +4189,65 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="V23" s="6">
+      <c r="V23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W23" s="5">
         <v>52513</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="5">
         <v>13259</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
       <c r="Y23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>67</v>
       </c>
@@ -4124,20 +4264,20 @@
         <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="3">
+        <v>325</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I24" s="3">
         <v>45998</v>
       </c>
-      <c r="H24" s="3">
-        <v>45998</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -4153,27 +4293,27 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="V24" s="6">
+      <c r="W24" s="5">
         <v>52556</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="5">
         <v>13347</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
       <c r="Y24" s="2">
         <v>0</v>
       </c>
@@ -4189,14 +4329,17 @@
       <c r="AC24" s="2">
         <v>0</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>70</v>
       </c>
@@ -4215,18 +4358,18 @@
       <c r="F25" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="3">
         <v>45991</v>
       </c>
-      <c r="H25" s="3">
-        <v>45991</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -4242,27 +4385,27 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
       <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="5">
         <v>52396</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="5">
         <v>13411</v>
       </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
@@ -4278,14 +4421,17 @@
       <c r="AC25" s="2">
         <v>0</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>73</v>
       </c>
@@ -4302,19 +4448,19 @@
         <v>85</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45990</v>
-      </c>
-      <c r="H26" s="3">
+        <v>377</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="I26" s="3">
         <v>46005</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>214</v>
+      <c r="J26" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>214</v>
@@ -4329,58 +4475,61 @@
         <v>214</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="U26" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="V26" s="6">
+      <c r="V26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W26" s="5">
         <v>53315</v>
       </c>
-      <c r="W26" s="6">
+      <c r="X26" s="5">
         <v>13858</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
       <c r="Y26" s="2">
         <v>0</v>
       </c>
       <c r="Z26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
       </c>
       <c r="AB26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2">
         <v>0</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>76</v>
       </c>
@@ -4399,17 +4548,17 @@
       <c r="F27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G27" s="3">
-        <v>45989</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="I27" s="3">
         <v>46112</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>99</v>
+      <c r="J27" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>99</v>
@@ -4421,32 +4570,32 @@
         <v>99</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="5">
         <v>52503</v>
       </c>
-      <c r="W27" s="6">
+      <c r="X27" s="5">
         <v>13458</v>
       </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
       <c r="Y27" s="2">
         <v>0</v>
       </c>
@@ -4454,22 +4603,25 @@
         <v>0</v>
       </c>
       <c r="AA27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="2">
         <v>0</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>82</v>
       </c>
@@ -4494,11 +4646,11 @@
       <c r="H28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -4509,62 +4661,65 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="2">
-        <v>0</v>
+      <c r="Q28" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="V28" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="W28" s="5">
+        <v>52413</v>
+      </c>
+      <c r="X28" s="5">
+        <v>13366</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="V28" s="6">
-        <v>52413</v>
-      </c>
-      <c r="W28" s="6">
-        <v>13366</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>313</v>
-      </c>
     </row>
-    <row r="29" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>85</v>
       </c>
@@ -4583,60 +4738,60 @@
       <c r="F29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="3">
-        <v>45997</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I29" s="3">
         <v>45998</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V29" s="6">
+      <c r="W29" s="5">
         <v>52519</v>
       </c>
-      <c r="W29" s="6">
+      <c r="X29" s="5">
         <v>13295</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
       <c r="Y29" s="2">
         <v>0</v>
       </c>
@@ -4644,22 +4799,25 @@
         <v>0</v>
       </c>
       <c r="AA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="2">
         <v>0</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>88</v>
       </c>
@@ -4676,85 +4834,88 @@
         <v>85</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45998</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G30" s="3">
-        <v>45998</v>
-      </c>
-      <c r="H30" s="3">
-        <v>45998</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V30" s="6">
+      <c r="W30" s="5">
         <v>52382</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="5">
         <v>13032</v>
       </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
       <c r="Y30" s="2">
         <v>0</v>
       </c>
       <c r="Z30" s="2">
         <v>0</v>
       </c>
-      <c r="AA30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>0</v>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>1</v>
       </c>
       <c r="AC30" s="2">
         <v>0</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>91</v>
       </c>
@@ -4773,18 +4934,18 @@
       <c r="F31" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I31" s="3">
         <v>46004</v>
       </c>
-      <c r="H31" s="3">
-        <v>46004</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
@@ -4797,36 +4958,36 @@
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
       <c r="Q31" s="2">
         <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U31" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="V31" s="6">
+      <c r="V31" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="W31" s="5">
         <v>52428</v>
       </c>
-      <c r="W31" s="6">
+      <c r="X31" s="5">
         <v>13326</v>
       </c>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
       <c r="Y31" s="2">
         <v>0</v>
       </c>
@@ -4834,25 +4995,28 @@
         <v>0</v>
       </c>
       <c r="AA31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>94</v>
       </c>
@@ -4871,18 +5035,18 @@
       <c r="F32" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="3">
         <v>46004</v>
       </c>
-      <c r="H32" s="3">
-        <v>46004</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
@@ -4895,38 +5059,38 @@
       <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
       <c r="Q32" s="2">
         <v>0</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="U32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U32" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="V32" s="6">
+      <c r="V32" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W32" s="5">
         <v>52544</v>
       </c>
-      <c r="W32" s="6">
+      <c r="X32" s="5">
         <v>13333</v>
       </c>
-      <c r="X32" s="2">
-        <v>1</v>
-      </c>
       <c r="Y32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
@@ -4940,15 +5104,18 @@
       <c r="AC32" s="2">
         <v>0</v>
       </c>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2" t="s">
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF32" s="2" t="s">
+      <c r="AG32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>97</v>
       </c>
@@ -4968,17 +5135,17 @@
         <v>296</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
@@ -4994,153 +5161,159 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="V33" s="6">
+      <c r="V33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W33" s="5">
         <v>52548</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
       <c r="Y33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AF33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AG33" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+    <row r="34" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>100</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="I34" s="10">
         <v>45997</v>
       </c>
-      <c r="H34" s="11">
-        <v>45997</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10" t="s">
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>0</v>
-      </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10" t="s">
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="U34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="12">
+      <c r="V34" s="9"/>
+      <c r="W34" s="11">
         <v>52507</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="X34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="X34" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10" t="s">
+      <c r="Y34" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF34" s="10" t="s">
+      <c r="AG34" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>103</v>
       </c>
@@ -5159,18 +5332,18 @@
       <c r="F35" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="I35" s="3">
         <v>45990</v>
       </c>
-      <c r="H35" s="3">
-        <v>45990</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
@@ -5183,36 +5356,36 @@
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
       <c r="Q35" s="2">
         <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="U35" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="U35" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="V35" s="6">
+      <c r="V35" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="W35" s="5">
         <v>52591</v>
       </c>
-      <c r="W35" s="6">
+      <c r="X35" s="5">
         <v>13448</v>
       </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
       <c r="Y35" s="2">
         <v>0</v>
       </c>
@@ -5220,25 +5393,28 @@
         <v>0</v>
       </c>
       <c r="AA35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AF35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AG35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>106</v>
       </c>
@@ -5257,17 +5433,17 @@
       <c r="F36" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="3">
-        <v>45991</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I36" s="3">
         <v>46018</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>66</v>
@@ -5287,21 +5463,21 @@
       <c r="P36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="2">
-        <v>0</v>
+      <c r="Q36" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
       </c>
-      <c r="V36" s="6">
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
         <v>52519</v>
       </c>
-      <c r="W36" s="6">
+      <c r="X36" s="5">
         <v>13295</v>
       </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
@@ -5309,22 +5485,25 @@
         <v>0</v>
       </c>
       <c r="AA36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="2">
         <v>0</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>109</v>
       </c>
@@ -5349,12 +5528,12 @@
       <c r="H37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
@@ -5364,47 +5543,47 @@
       <c r="M37" s="2">
         <v>0</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q37" s="2">
-        <v>0</v>
+      <c r="Q37" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="5">
         <v>52477</v>
       </c>
-      <c r="W37" s="6">
+      <c r="X37" s="5">
         <v>13386</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
       <c r="Y37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2">
         <v>1</v>
@@ -5412,17 +5591,20 @@
       <c r="AC37" s="2">
         <v>1</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>112</v>
       </c>
@@ -5441,17 +5623,17 @@
       <c r="F38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I38" s="3">
         <v>45991</v>
       </c>
-      <c r="H38" s="3">
-        <v>45991</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
+      <c r="J38" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -5468,27 +5650,27 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
       <c r="R38" s="2">
         <v>0</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="5">
         <v>52525</v>
       </c>
-      <c r="W38" s="6">
+      <c r="X38" s="5">
         <v>13400</v>
       </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
       <c r="Y38" s="2">
         <v>0</v>
       </c>
@@ -5496,25 +5678,28 @@
         <v>0</v>
       </c>
       <c r="AA38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>115</v>
       </c>
@@ -5533,17 +5718,17 @@
       <c r="F39" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="3">
-        <v>45989</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I39" s="3">
         <v>45991</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
+      <c r="J39" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -5554,65 +5739,68 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="P39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U39" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="V39" s="6">
+      <c r="V39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="W39" s="5">
         <v>52489</v>
       </c>
-      <c r="W39" s="6">
+      <c r="X39" s="5">
         <v>13328</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
       <c r="Y39" s="2">
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="2">
         <v>1</v>
       </c>
       <c r="AB39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF39" s="2" t="s">
-        <v>372</v>
+      <c r="AG39" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>118</v>
       </c>
@@ -5631,17 +5819,17 @@
       <c r="F40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="3">
-        <v>45966</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="I40" s="3">
         <v>46014</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>308</v>
@@ -5653,7 +5841,7 @@
         <v>308</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>99</v>
@@ -5661,30 +5849,30 @@
       <c r="P40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R40" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="V40" s="6">
+      <c r="W40" s="5">
         <v>52500</v>
       </c>
-      <c r="W40" s="6">
+      <c r="X40" s="5">
         <v>13353</v>
       </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
       <c r="Y40" s="2">
         <v>0</v>
       </c>
@@ -5698,19 +5886,22 @@
         <v>0</v>
       </c>
       <c r="AC40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF40" s="2" t="s">
-        <v>314</v>
+      <c r="AG40" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>121</v>
       </c>
@@ -5727,19 +5918,19 @@
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="I41" s="3">
+        <v>46019</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="G41" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H41" s="3">
-        <v>46019</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>152</v>
@@ -5751,35 +5942,35 @@
         <v>152</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P41" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>351</v>
+      <c r="R41" s="2">
+        <v>0</v>
       </c>
       <c r="S41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="T41" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="U41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V41" s="2" t="s">
+      <c r="W41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="W41" s="6">
+      <c r="X41" s="5">
         <v>13048</v>
       </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
       <c r="Y41" s="2">
         <v>0</v>
       </c>
@@ -5787,22 +5978,25 @@
         <v>0</v>
       </c>
       <c r="AA41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="2">
         <v>0</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>124</v>
       </c>
@@ -5821,17 +6015,17 @@
       <c r="F42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G42" s="3">
-        <v>45985</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" s="3">
         <v>46021</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>152</v>
+      <c r="J42" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>152</v>
@@ -5849,37 +6043,37 @@
         <v>152</v>
       </c>
       <c r="P42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2" t="s">
+      <c r="R42" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="U42" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="V42" s="6">
+      <c r="V42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W42" s="5">
         <v>52457</v>
       </c>
-      <c r="W42" s="6">
+      <c r="X42" s="5">
         <v>13385</v>
       </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
       <c r="Y42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="2">
         <v>0</v>
@@ -5888,19 +6082,22 @@
         <v>0</v>
       </c>
       <c r="AC42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AF42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>127</v>
       </c>
@@ -5919,17 +6116,17 @@
       <c r="F43" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G43" s="3">
-        <v>45987</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="I43" s="3">
         <v>46021</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>152</v>
+      <c r="J43" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>152</v>
@@ -5949,53 +6146,56 @@
       <c r="P43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R43" s="3">
         <v>46015</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="V43" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="W43" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="W43" s="6">
+      <c r="X43" s="5">
         <v>13602</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
       <c r="Y43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2">
         <v>0</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>130</v>
       </c>
@@ -6012,85 +6212,88 @@
         <v>85</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="I44" s="3">
+        <v>41257</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G44" s="3">
-        <v>46003</v>
-      </c>
-      <c r="H44" s="3">
-        <v>41257</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V44" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="V44" s="2" t="s">
+      <c r="W44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W44" s="6">
+      <c r="X44" s="5">
         <v>13626</v>
       </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
       <c r="Y44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2">
         <v>0</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>133</v>
       </c>
@@ -6109,701 +6312,738 @@
       <c r="F45" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="I45" s="3">
         <v>45985</v>
       </c>
-      <c r="H45" s="3">
-        <v>45985</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="W45" s="5">
+        <v>52417</v>
+      </c>
+      <c r="X45" s="5">
+        <v>13495</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>134</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="I46" s="13">
+        <v>45989</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
+      <c r="N46" s="12">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12">
+        <v>0</v>
+      </c>
+      <c r="S46" s="12">
+        <v>0</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="W46" s="14">
+        <v>52.408971094981801</v>
+      </c>
+      <c r="X46" s="14">
+        <v>12.972837798847801</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>135</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="I47" s="13">
+        <v>45998</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="12">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W47" s="14">
+        <v>52.396171453746099</v>
+      </c>
+      <c r="X47" s="14">
+        <v>13.0563852970156</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>136</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="I48" s="13">
+        <v>45990</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="14">
+        <v>52.393853972198698</v>
+      </c>
+      <c r="X48" s="14">
+        <v>13.0275742169312</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>137</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="I49" s="13">
+        <v>45991</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="12">
+        <v>0</v>
+      </c>
+      <c r="N49" s="12">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="X49" s="16">
+        <v>13057</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>138</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="I50" s="13">
+        <v>46005</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K50" s="12">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="12">
+        <v>0</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="W50" s="18">
+        <v>52402</v>
+      </c>
+      <c r="X50" s="16">
+        <v>13061</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>139</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K51" s="12">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12">
+        <v>0</v>
+      </c>
+      <c r="N51" s="12">
+        <v>0</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0</v>
+      </c>
+      <c r="S51" s="12">
+        <v>0</v>
+      </c>
+      <c r="W51" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="X51" s="16">
+        <v>13095</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>140</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="I52" s="13">
+        <v>45990</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>0</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
+        <v>0</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W52" s="16">
+        <v>52406</v>
+      </c>
+      <c r="X52" s="16">
+        <v>13019</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>141</v>
+      </c>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>142</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>143</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>144</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>145</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>146</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
         <v>147</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V45" s="6">
-        <v>52417</v>
-      </c>
-      <c r="W45" s="6">
-        <v>13495</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF45" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
-        <v>134</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="15">
-        <v>45989</v>
-      </c>
-      <c r="H46" s="15">
-        <v>45989</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="14">
-        <v>0</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0</v>
-      </c>
-      <c r="L46" s="14">
-        <v>0</v>
-      </c>
-      <c r="M46" s="14">
-        <v>0</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="O46" s="14">
-        <v>0</v>
-      </c>
-      <c r="P46" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>0</v>
-      </c>
-      <c r="R46" s="14">
-        <v>0</v>
-      </c>
-      <c r="S46" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="V46" s="16">
-        <v>52.408971094981801</v>
-      </c>
-      <c r="W46" s="16">
-        <v>12.972837798847801</v>
-      </c>
-      <c r="X46" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
-        <v>135</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="G47" s="15">
-        <v>45996</v>
-      </c>
-      <c r="H47" s="15">
-        <v>45998</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="J47" s="14">
-        <v>0</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14">
-        <v>0</v>
-      </c>
-      <c r="M47" s="14">
-        <v>0</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>0</v>
-      </c>
-      <c r="R47" s="14">
-        <v>0</v>
-      </c>
-      <c r="S47" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="V47" s="16">
-        <v>52.396171453746099</v>
-      </c>
-      <c r="W47" s="16">
-        <v>13.0563852970156</v>
-      </c>
-      <c r="X47" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
-        <v>136</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="G48" s="15">
-        <v>45990</v>
-      </c>
-      <c r="H48" s="15">
-        <v>45990</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="J48" s="14">
-        <v>0</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0</v>
-      </c>
-      <c r="L48" s="14">
-        <v>0</v>
-      </c>
-      <c r="M48" s="14">
-        <v>0</v>
-      </c>
-      <c r="N48" s="14">
-        <v>0</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="P48" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>0</v>
-      </c>
-      <c r="R48" s="14">
-        <v>0</v>
-      </c>
-      <c r="V48" s="16">
-        <v>52.393853972198698</v>
-      </c>
-      <c r="W48" s="16">
-        <v>13.0275742169312</v>
-      </c>
-      <c r="X48" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
-        <v>137</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="G49" s="15">
-        <v>45990</v>
-      </c>
-      <c r="H49" s="15">
-        <v>45991</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="J49" s="14">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14">
-        <v>0</v>
-      </c>
-      <c r="M49" s="14">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14">
-        <v>0</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>0</v>
-      </c>
-      <c r="R49" s="14">
-        <v>0</v>
-      </c>
-      <c r="V49" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="W49" s="18">
-        <v>13057</v>
-      </c>
-      <c r="X49" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
-        <v>138</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="G50" s="15">
-        <v>46004</v>
-      </c>
-      <c r="H50" s="15">
-        <v>46005</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="J50" s="14">
-        <v>0</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0</v>
-      </c>
-      <c r="L50" s="14">
-        <v>0</v>
-      </c>
-      <c r="M50" s="14">
-        <v>0</v>
-      </c>
-      <c r="N50" s="14">
-        <v>0</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>0</v>
-      </c>
-      <c r="R50" s="14">
-        <v>0</v>
-      </c>
-      <c r="S50" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="V50" s="20">
-        <v>52402</v>
-      </c>
-      <c r="W50" s="18">
-        <v>13061</v>
-      </c>
-      <c r="X50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
-        <v>139</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="J51" s="14">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14">
-        <v>0</v>
-      </c>
-      <c r="M51" s="14">
-        <v>0</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>0</v>
-      </c>
-      <c r="R51" s="14">
-        <v>0</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="W51" s="18">
-        <v>13095</v>
-      </c>
-      <c r="X51" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
-        <v>140</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="G52" s="15">
-        <v>45990</v>
-      </c>
-      <c r="H52" s="15">
-        <v>45990</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="J52" s="14">
-        <v>0</v>
-      </c>
-      <c r="K52" s="14">
-        <v>0</v>
-      </c>
-      <c r="L52" s="14">
-        <v>0</v>
-      </c>
-      <c r="M52" s="14">
-        <v>0</v>
-      </c>
-      <c r="N52" s="14">
-        <v>0</v>
-      </c>
-      <c r="O52" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>0</v>
-      </c>
-      <c r="R52" s="14">
-        <v>0</v>
-      </c>
-      <c r="S52" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="V52" s="18">
-        <v>52406</v>
-      </c>
-      <c r="W52" s="18">
-        <v>13019</v>
-      </c>
-      <c r="X52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
-        <v>147</v>
-      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF45" xr:uid="{4C2D8DA5-1D3E-6445-85B1-B279A4086756}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF45">
+  <autoFilter ref="A1:AG45" xr:uid="{4C2D8DA5-1D3E-6445-85B1-B279A4086756}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG45">
       <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
